--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\MDB Change\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="master-reg_center_user" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="9">
   <si>
     <t>regcntr_id</t>
   </si>
   <si>
     <t>usr_id</t>
+  </si>
+  <si>
+    <t>lang_code</t>
   </si>
   <si>
     <t>is_active</t>
@@ -34,6 +37,9 @@
   </si>
   <si>
     <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>eng</t>
   </si>
   <si>
     <t>superadmin</t>
@@ -46,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +60,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -71,15 +377,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -111,7 +606,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -123,7 +618,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -170,6 +665,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -205,6 +717,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -357,15 +886,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,358 +908,411 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2">
         <v>110001</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f>A2+3</f>
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B3">
         <v>110002</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A11" si="0">A3+3</f>
-        <v>10007</v>
+        <v>10003</v>
       </c>
       <c r="B4">
         <v>110003</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>10010</v>
+        <v>10004</v>
       </c>
       <c r="B5">
         <v>110004</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>10013</v>
+        <v>10005</v>
       </c>
       <c r="B6">
         <v>110005</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>10016</v>
+        <v>10006</v>
       </c>
       <c r="B7">
         <v>110006</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>10019</v>
+        <v>10007</v>
       </c>
       <c r="B8">
         <v>110007</v>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>10022</v>
+        <v>10008</v>
       </c>
       <c r="B9">
         <v>110008</v>
       </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>10025</v>
+        <v>10009</v>
       </c>
       <c r="B10">
         <v>110009</v>
       </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10028</v>
+        <v>10010</v>
       </c>
       <c r="B11">
         <v>110010</v>
       </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>10031</v>
+        <v>10011</v>
       </c>
       <c r="B12">
         <v>110011</v>
       </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>10031</v>
+        <v>10011</v>
       </c>
       <c r="B13">
         <v>110012</v>
       </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>10034</v>
+        <v>10012</v>
       </c>
       <c r="B14">
         <v>110013</v>
       </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>10034</v>
+        <v>10012</v>
       </c>
       <c r="B15">
         <v>110014</v>
       </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>10037</v>
+        <v>10013</v>
       </c>
       <c r="B16">
         <v>110015</v>
       </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>10037</v>
+        <v>10013</v>
       </c>
       <c r="B17">
         <v>110016</v>
       </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>10040</v>
+        <v>10014</v>
       </c>
       <c r="B18">
         <v>110017</v>
       </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>10040</v>
+        <v>10014</v>
       </c>
       <c r="B19">
         <v>110018</v>
       </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>10043</v>
+        <v>10015</v>
       </c>
       <c r="B20">
         <v>110019</v>
       </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>10043</v>
+        <v>10015</v>
       </c>
       <c r="B21">
         <v>110020</v>
       </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\MDB Change\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E57F5CE2-1631-4584-A29A-7CFE8ACCAD07}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-reg_center_user" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="9">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -885,10 +886,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1312,7 +1315,188 @@
         <v>8</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>10002</v>
+      </c>
+      <c r="B22">
+        <v>110021</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10003</v>
+      </c>
+      <c r="B23">
+        <v>110022</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>10004</v>
+      </c>
+      <c r="B24">
+        <v>110023</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>10005</v>
+      </c>
+      <c r="B25">
+        <v>110024</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>10006</v>
+      </c>
+      <c r="B26">
+        <v>110025</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>10007</v>
+      </c>
+      <c r="B27">
+        <v>110026</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>10008</v>
+      </c>
+      <c r="B28">
+        <v>110027</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>10009</v>
+      </c>
+      <c r="B29">
+        <v>110028</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>10010</v>
+      </c>
+      <c r="B30">
+        <v>110029</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E57F5CE2-1631-4584-A29A-7CFE8ACCAD07}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A70E2BC7-00F1-450C-9451-6E4BA635CABC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="9">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -887,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1495,6 +1495,46 @@
         <v>8</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>10001</v>
+      </c>
+      <c r="B31">
+        <v>110030</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>10001</v>
+      </c>
+      <c r="B32">
+        <v>110031</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A70E2BC7-00F1-450C-9451-6E4BA635CABC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{63EF0738-4563-4E7E-82BE-86584543C708}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -887,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1535,6 +1535,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>10002</v>
+      </c>
+      <c r="B33">
+        <v>110032</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\MDB Change\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{63EF0738-4563-4E7E-82BE-86584543C708}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-reg_center_user" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -885,10 +886,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1312,7 +1315,248 @@
         <v>8</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>10002</v>
+      </c>
+      <c r="B22">
+        <v>110021</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10003</v>
+      </c>
+      <c r="B23">
+        <v>110022</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>10004</v>
+      </c>
+      <c r="B24">
+        <v>110023</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>10005</v>
+      </c>
+      <c r="B25">
+        <v>110024</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>10006</v>
+      </c>
+      <c r="B26">
+        <v>110025</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>10007</v>
+      </c>
+      <c r="B27">
+        <v>110026</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>10008</v>
+      </c>
+      <c r="B28">
+        <v>110027</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>10009</v>
+      </c>
+      <c r="B29">
+        <v>110028</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>10010</v>
+      </c>
+      <c r="B30">
+        <v>110029</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>10001</v>
+      </c>
+      <c r="B31">
+        <v>110030</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>10001</v>
+      </c>
+      <c r="B32">
+        <v>110031</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>10002</v>
+      </c>
+      <c r="B33">
+        <v>110032</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{63EF0738-4563-4E7E-82BE-86584543C708}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0A970B69-7D8E-4AAD-A830-F607E5C6E8F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -937,7 +937,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B3">
         <v>110002</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B25">
         <v>110024</v>

--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0A970B69-7D8E-4AAD-A830-F607E5C6E8F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8EF17727-FB34-4FA0-9F9D-3E32D39E4BFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="9">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -887,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1555,6 +1555,66 @@
         <v>8</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>10005</v>
+      </c>
+      <c r="B34">
+        <v>110033</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>10005</v>
+      </c>
+      <c r="B35">
+        <v>110034</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>10005</v>
+      </c>
+      <c r="B36">
+        <v>110035</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
